--- a/JavaScript/2025-01-13 typescript/ts-node/report.xlsx
+++ b/JavaScript/2025-01-13 typescript/ts-node/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Produktų pardavimo ataskaita</t>
   </si>
@@ -29,13 +29,70 @@
   </si>
   <si>
     <t>Iš viso</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Desk Chair</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Desk Lamp</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>BackpackBackpackBackpackBackpack</t>
+  </si>
+  <si>
+    <t>AccessoriesAccessories</t>
+  </si>
+  <si>
+    <t>Parduota už:</t>
+  </si>
+  <si>
+    <t>Parduota prekių:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot;€&quot;;[Red]-#,##0.00&quot;€&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -50,6 +107,9 @@
     </font>
     <font>
       <b/>
+    </font>
+    <font>
+      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,12 +132,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,8 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="35.84" customWidth="1"/>
+    <col min="2" max="2" width="24.64" customWidth="1"/>
+    <col min="3" max="3" width="15.680000000000001" customWidth="1"/>
+    <col min="4" max="4" width="17.92" customWidth="1"/>
+    <col min="5" max="5" width="20.160000000000004" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="55" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -430,7 +504,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -445,6 +519,209 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>700</v>
+      </c>
+      <c r="E6" s="3">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>150</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
+        <v>80</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3">
+        <v>65641610.455</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1969248313.6499999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1969287683.6499999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
